--- a/Documents/Sprint/SprintPlan.xlsx
+++ b/Documents/Sprint/SprintPlan.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raima\Documents\GitHub\ProCp\Documents\Sprint Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dyer\Documents\GitHub\ProCp\Documents\Sprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="59">
   <si>
     <t>Task Name</t>
   </si>
@@ -86,9 +86,6 @@
     <t xml:space="preserve">This sheet is to enable the drop-down lists </t>
   </si>
   <si>
-    <t>Create a Product Backlog in Smartsheet</t>
-  </si>
-  <si>
     <t>Start Date</t>
   </si>
   <si>
@@ -185,9 +182,6 @@
     <t>Implementing the run simulation</t>
   </si>
   <si>
-    <t>Sunday, January 15,2017</t>
-  </si>
-  <si>
     <t>Implementing there Information Panel</t>
   </si>
   <si>
@@ -203,10 +197,16 @@
     <t>Monday, December 12, 2016</t>
   </si>
   <si>
-    <t>Wedneesday, January 11, 2017</t>
-  </si>
-  <si>
     <t>Tuesday,January,10, 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final Demo/Presentation </t>
+  </si>
+  <si>
+    <t>Wednesday, January 11, 2017</t>
+  </si>
+  <si>
+    <t>Sunday, January 22,2017</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>55651</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>14345</xdr:rowOff>
+      <xdr:rowOff>14344</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -762,23 +762,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:K41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="33.125" customWidth="1"/>
+    <col min="2" max="2" width="33.08203125" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="16.625" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
-    <col min="7" max="7" width="29.875" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.58203125" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+    <col min="7" max="7" width="29.83203125" customWidth="1"/>
     <col min="8" max="8" width="29.25" customWidth="1"/>
-    <col min="9" max="9" width="15.625" customWidth="1"/>
+    <col min="9" max="9" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -807,7 +807,7 @@
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -835,7 +835,7 @@
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
     </row>
-    <row r="3" spans="1:28" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="6"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -864,7 +864,7 @@
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -893,7 +893,7 @@
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -922,9 +922,9 @@
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
     </row>
-    <row r="6" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>0</v>
@@ -942,13 +942,13 @@
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -970,7 +970,7 @@
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
     </row>
-    <row r="7" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
@@ -982,17 +982,17 @@
         <v>11</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="3">
         <f>SUM(F8:F12)</f>
         <v>165</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
@@ -1015,21 +1015,21 @@
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
     </row>
-    <row r="8" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>101</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="2">
         <v>30</v>
@@ -1037,7 +1037,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -1059,12 +1059,12 @@
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
     </row>
-    <row r="9" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>102</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -1073,7 +1073,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="2">
         <v>15</v>
@@ -1101,12 +1101,12 @@
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
     </row>
-    <row r="10" spans="1:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>103</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -1115,7 +1115,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="2">
         <v>45</v>
@@ -1123,7 +1123,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -1145,12 +1145,12 @@
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
     </row>
-    <row r="11" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="60.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>104</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
@@ -1159,7 +1159,7 @@
         <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="2">
         <v>60</v>
@@ -1167,7 +1167,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -1189,12 +1189,12 @@
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
     </row>
-    <row r="12" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>105</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
@@ -1203,7 +1203,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F12" s="2">
         <v>15</v>
@@ -1211,7 +1211,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -1233,7 +1233,7 @@
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
     </row>
-    <row r="13" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>6</v>
@@ -1245,17 +1245,17 @@
         <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" s="3">
         <f>SUM(F14:F23)</f>
         <v>125</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="5"/>
@@ -1278,12 +1278,12 @@
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
     </row>
-    <row r="14" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>201</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -1292,7 +1292,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" s="2">
         <v>15</v>
@@ -1300,7 +1300,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -1322,12 +1322,12 @@
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
     </row>
-    <row r="15" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>202</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
@@ -1336,7 +1336,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" s="2">
         <v>30</v>
@@ -1344,7 +1344,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -1366,12 +1366,12 @@
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
     </row>
-    <row r="16" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>203</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>49</v>
+      <c r="B16" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
@@ -1380,7 +1380,7 @@
         <v>11</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" s="2">
         <v>15</v>
@@ -1388,7 +1388,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -1410,12 +1410,12 @@
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
     </row>
-    <row r="17" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>204</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
@@ -1432,7 +1432,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -1454,12 +1454,12 @@
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
     </row>
-    <row r="18" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>205</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
@@ -1476,7 +1476,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -1498,12 +1498,12 @@
       <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
     </row>
-    <row r="19" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>206</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
@@ -1520,7 +1520,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -1542,12 +1542,12 @@
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
     </row>
-    <row r="20" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>207</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
@@ -1564,7 +1564,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -1586,12 +1586,12 @@
       <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
     </row>
-    <row r="21" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>208</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
@@ -1600,7 +1600,7 @@
         <v>13</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21" s="2">
         <v>5</v>
@@ -1608,7 +1608,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -1630,12 +1630,12 @@
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
     </row>
-    <row r="22" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>209</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
@@ -1644,7 +1644,7 @@
         <v>12</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F22" s="2">
         <v>15</v>
@@ -1652,7 +1652,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -1674,12 +1674,12 @@
       <c r="AA22" s="5"/>
       <c r="AB22" s="5"/>
     </row>
-    <row r="23" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>210</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>10</v>
@@ -1688,7 +1688,7 @@
         <v>11</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F23" s="2">
         <v>15</v>
@@ -1696,7 +1696,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -1718,7 +1718,7 @@
       <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
     </row>
-    <row r="24" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
         <v>7</v>
@@ -1730,17 +1730,17 @@
         <v>11</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F24" s="3">
         <f>SUM(F25:F31)</f>
         <v>190</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="5"/>
@@ -1763,12 +1763,12 @@
       <c r="AA24" s="5"/>
       <c r="AB24" s="5"/>
     </row>
-    <row r="25" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>301</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
@@ -1777,7 +1777,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F25" s="2">
         <v>100</v>
@@ -1785,7 +1785,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -1807,12 +1807,12 @@
       <c r="AA25" s="5"/>
       <c r="AB25" s="5"/>
     </row>
-    <row r="26" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
         <v>302</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
@@ -1821,7 +1821,7 @@
         <v>11</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F26" s="2">
         <v>30</v>
@@ -1829,7 +1829,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -1851,12 +1851,12 @@
       <c r="AA26" s="5"/>
       <c r="AB26" s="5"/>
     </row>
-    <row r="27" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
         <v>303</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
@@ -1865,7 +1865,7 @@
         <v>12</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F27" s="2">
         <v>5</v>
@@ -1873,7 +1873,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
@@ -1895,12 +1895,12 @@
       <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
     </row>
-    <row r="28" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10">
         <v>304</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
@@ -1909,7 +1909,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F28" s="2">
         <v>15</v>
@@ -1917,7 +1917,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -1939,12 +1939,12 @@
       <c r="AA28" s="5"/>
       <c r="AB28" s="5"/>
     </row>
-    <row r="29" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="10">
         <v>305</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>52</v>
+      <c r="B29" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
@@ -1953,7 +1953,7 @@
         <v>11</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F29" s="2">
         <v>10</v>
@@ -1961,7 +1961,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
@@ -1983,12 +1983,12 @@
       <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
     </row>
-    <row r="30" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>306</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
@@ -1997,7 +1997,7 @@
         <v>12</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F30" s="2">
         <v>15</v>
@@ -2005,7 +2005,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
@@ -2027,12 +2027,12 @@
       <c r="AA30" s="5"/>
       <c r="AB30" s="5"/>
     </row>
-    <row r="31" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>307</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>10</v>
@@ -2041,7 +2041,7 @@
         <v>11</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F31" s="2">
         <v>15</v>
@@ -2049,7 +2049,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
@@ -2071,7 +2071,7 @@
       <c r="AA31" s="5"/>
       <c r="AB31" s="5"/>
     </row>
-    <row r="32" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="3" t="s">
         <v>8</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>11</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F32" s="3">
         <f>SUM(F33:F35)</f>
@@ -2092,7 +2092,7 @@
         <v>57</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="5"/>
@@ -2115,12 +2115,12 @@
       <c r="AA32" s="5"/>
       <c r="AB32" s="5"/>
     </row>
-    <row r="33" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="10">
         <v>401</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
@@ -2129,7 +2129,7 @@
         <v>11</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F33" s="2">
         <v>75</v>
@@ -2137,7 +2137,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
@@ -2159,12 +2159,12 @@
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
     </row>
-    <row r="34" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="10">
         <v>402</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
@@ -2173,7 +2173,7 @@
         <v>12</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F34" s="2">
         <v>60</v>
@@ -2181,7 +2181,7 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
@@ -2203,12 +2203,12 @@
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
     </row>
-    <row r="35" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>403</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>10</v>
@@ -2217,7 +2217,7 @@
         <v>11</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F35" s="2">
         <v>30</v>
@@ -2225,7 +2225,7 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
@@ -2247,10 +2247,8 @@
       <c r="AA35" s="5"/>
       <c r="AB35" s="5"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B36" s="12" t="s">
-        <v>18</v>
-      </c>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
@@ -2278,7 +2276,7 @@
       <c r="AA36" s="5"/>
       <c r="AB36" s="5"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
@@ -2307,7 +2305,7 @@
       <c r="AA37" s="5"/>
       <c r="AB37" s="5"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
@@ -2336,7 +2334,7 @@
       <c r="AA38" s="5"/>
       <c r="AB38" s="5"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -2365,7 +2363,7 @@
       <c r="AA39" s="5"/>
       <c r="AB39" s="5"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
@@ -2394,7 +2392,7 @@
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
@@ -2423,7 +2421,7 @@
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -2452,7 +2450,7 @@
       <c r="AA42" s="5"/>
       <c r="AB42" s="5"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -2481,7 +2479,7 @@
       <c r="AA43" s="5"/>
       <c r="AB43" s="5"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -2510,7 +2508,7 @@
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -2539,7 +2537,7 @@
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -2568,7 +2566,7 @@
       <c r="AA46" s="5"/>
       <c r="AB46" s="5"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -2597,7 +2595,7 @@
       <c r="AA47" s="5"/>
       <c r="AB47" s="5"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -2626,7 +2624,7 @@
       <c r="AA48" s="5"/>
       <c r="AB48" s="5"/>
     </row>
-    <row r="49" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -2655,7 +2653,7 @@
       <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
     </row>
-    <row r="50" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -2684,7 +2682,7 @@
       <c r="AA50" s="5"/>
       <c r="AB50" s="5"/>
     </row>
-    <row r="51" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -2713,7 +2711,7 @@
       <c r="AA51" s="5"/>
       <c r="AB51" s="5"/>
     </row>
-    <row r="52" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -2742,7 +2740,7 @@
       <c r="AA52" s="5"/>
       <c r="AB52" s="5"/>
     </row>
-    <row r="53" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -2771,7 +2769,7 @@
       <c r="AA53" s="5"/>
       <c r="AB53" s="5"/>
     </row>
-    <row r="54" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -2800,7 +2798,7 @@
       <c r="AA54" s="5"/>
       <c r="AB54" s="5"/>
     </row>
-    <row r="55" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -2829,7 +2827,7 @@
       <c r="AA55" s="5"/>
       <c r="AB55" s="5"/>
     </row>
-    <row r="56" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -2858,7 +2856,7 @@
       <c r="AA56" s="5"/>
       <c r="AB56" s="5"/>
     </row>
-    <row r="57" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -2887,7 +2885,7 @@
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
     </row>
-    <row r="58" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -2916,7 +2914,7 @@
       <c r="AA58" s="5"/>
       <c r="AB58" s="5"/>
     </row>
-    <row r="59" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -2945,7 +2943,7 @@
       <c r="AA59" s="5"/>
       <c r="AB59" s="5"/>
     </row>
-    <row r="60" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -2974,7 +2972,7 @@
       <c r="AA60" s="5"/>
       <c r="AB60" s="5"/>
     </row>
-    <row r="61" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -3003,7 +3001,7 @@
       <c r="AA61" s="5"/>
       <c r="AB61" s="5"/>
     </row>
-    <row r="62" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -3032,7 +3030,7 @@
       <c r="AA62" s="5"/>
       <c r="AB62" s="5"/>
     </row>
-    <row r="63" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -3061,7 +3059,7 @@
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
     </row>
-    <row r="64" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -3090,7 +3088,7 @@
       <c r="AA64" s="5"/>
       <c r="AB64" s="5"/>
     </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
@@ -3119,7 +3117,7 @@
       <c r="AA65" s="5"/>
       <c r="AB65" s="5"/>
     </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
@@ -3148,7 +3146,7 @@
       <c r="AA66" s="5"/>
       <c r="AB66" s="5"/>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -3177,7 +3175,7 @@
       <c r="AA67" s="5"/>
       <c r="AB67" s="5"/>
     </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -3206,7 +3204,7 @@
       <c r="AA68" s="5"/>
       <c r="AB68" s="5"/>
     </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -3235,7 +3233,7 @@
       <c r="AA69" s="5"/>
       <c r="AB69" s="5"/>
     </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -3264,7 +3262,7 @@
       <c r="AA70" s="5"/>
       <c r="AB70" s="5"/>
     </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -3293,7 +3291,7 @@
       <c r="AA71" s="5"/>
       <c r="AB71" s="5"/>
     </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
@@ -3322,7 +3320,7 @@
       <c r="AA72" s="5"/>
       <c r="AB72" s="5"/>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
@@ -3351,7 +3349,7 @@
       <c r="AA73" s="5"/>
       <c r="AB73" s="5"/>
     </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
@@ -3380,7 +3378,7 @@
       <c r="AA74" s="5"/>
       <c r="AB74" s="5"/>
     </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
@@ -3409,7 +3407,7 @@
       <c r="AA75" s="5"/>
       <c r="AB75" s="5"/>
     </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -3438,7 +3436,7 @@
       <c r="AA76" s="5"/>
       <c r="AB76" s="5"/>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
@@ -3467,7 +3465,7 @@
       <c r="AA77" s="5"/>
       <c r="AB77" s="5"/>
     </row>
-    <row r="78" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
@@ -3496,7 +3494,7 @@
       <c r="AA78" s="5"/>
       <c r="AB78" s="5"/>
     </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
@@ -3540,65 +3538,9 @@
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B36" r:id="rId1"/>
-    <hyperlink ref="C36" r:id="rId2" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="D36" r:id="rId3" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="F36" r:id="rId4" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="G36" r:id="rId5" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="H36" r:id="rId6" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="I36" r:id="rId7" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="J36" r:id="rId8" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="K36" r:id="rId9" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="B37" r:id="rId10" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="C37" r:id="rId11" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="D37" r:id="rId12" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="F37" r:id="rId13" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="G37" r:id="rId14" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="H37" r:id="rId15" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="I37" r:id="rId16" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="J37" r:id="rId17" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="K37" r:id="rId18" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="B38" r:id="rId19" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="C38" r:id="rId20" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="D38" r:id="rId21" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="F38" r:id="rId22" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="G38" r:id="rId23" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="H38" r:id="rId24" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="I38" r:id="rId25" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="J38" r:id="rId26" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="K38" r:id="rId27" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="B39" r:id="rId28" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="C39" r:id="rId29" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="D39" r:id="rId30" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="F39" r:id="rId31" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="G39" r:id="rId32" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="H39" r:id="rId33" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="I39" r:id="rId34" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="J39" r:id="rId35" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="K39" r:id="rId36" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="B40" r:id="rId37" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="C40" r:id="rId38" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="D40" r:id="rId39" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="F40" r:id="rId40" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="G40" r:id="rId41" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="H40" r:id="rId42" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="I40" r:id="rId43" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="J40" r:id="rId44" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="K40" r:id="rId45" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="B41" r:id="rId46" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="C41" r:id="rId47" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="D41" r:id="rId48" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="F41" r:id="rId49" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="G41" r:id="rId50" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="H41" r:id="rId51" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="I41" r:id="rId52" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="J41" r:id="rId53" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="K41" r:id="rId54" display="Create a Product Backlog in Smartsheet"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId55"/>
-  <drawing r:id="rId56"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3615,14 +3557,14 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -3633,7 +3575,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -3644,7 +3586,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>13</v>
       </c>
